--- a/TOM_NOVEMBER_edited.xlsx
+++ b/TOM_NOVEMBER_edited.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="521">
   <si>
     <t xml:space="preserve">♯</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">Good job this month Kanta. You always speak with a big voice during circle time and while reading the sight word story. You have been full of energy and very well behaved in class. Well done!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to Super epion Kasumi! It has been so nice having you in class this month, I know Nozomi loves to have her friend in class. You are very well behaved, and you’re always speaking and singing with a big voice – keep it up!</t>
   </si>
   <si>
     <t xml:space="preserve">Kimueru</t>
@@ -1991,7 +1997,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2602,7 +2608,7 @@
       <c r="A55" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2625,10 +2631,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2642,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,7 +2661,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>117</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>119</v>
@@ -2677,7 +2683,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>121</v>
@@ -2688,21 +2694,21 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>125</v>
@@ -2710,7 +2716,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>126</v>
@@ -2721,29 +2727,29 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>131</v>
@@ -2754,9 +2760,9 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="B69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2764,12 +2770,22 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
+      <c r="A70" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8"/>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8"/>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2815,11 +2831,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,16 +2860,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,16 +2891,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,16 +2908,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,13 +2925,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,13 +2942,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,13 +2959,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,13 +2976,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,16 +2990,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,16 +3007,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,16 +3024,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,16 +3041,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,16 +3058,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,16 +3075,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,13 +3092,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,13 +3109,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,10 +3123,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,16 +3134,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,10 +3151,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,16 +3162,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,10 +3179,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,16 +3190,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,16 +3235,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,13 +3255,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,13 +3272,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,10 +3289,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,13 +3300,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,13 +3317,13 @@
         <v>25</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,16 +3331,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,16 +3348,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,13 +3365,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,13 +3382,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,16 +3396,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,13 +3416,13 @@
         <v>17</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,13 +3433,13 @@
         <v>21</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,16 +3447,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,16 +3464,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,16 +3481,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,16 +3498,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,13 +3515,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,16 +3529,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,16 +3546,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,16 +3563,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,16 +3580,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,13 +3597,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,16 +3611,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,16 +3628,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,16 +3645,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,16 +3662,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,16 +3679,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,16 +3696,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,13 +3713,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,16 +3727,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,13 +3744,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,16 +3758,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,16 +3775,16 @@
         <v>60</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,16 +3792,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,16 +3809,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,16 +3826,16 @@
         <v>63</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,19 +3843,19 @@
         <v>64</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,19 +3863,19 @@
         <v>65</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,16 +3883,16 @@
         <v>66</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,19 +3900,19 @@
         <v>67</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,16 +3920,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,13 +3937,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,19 +3951,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,16 +3971,16 @@
         <v>71</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,13 +3988,13 @@
         <v>72</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,23 +4002,23 @@
         <v>73</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4044,26 +4060,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,31 +4087,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,31 +4119,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,31 +4151,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,31 +4183,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,31 +4215,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,31 +4247,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,31 +4282,31 @@
         <v>3</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,34 +4317,34 @@
         <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,32 +4352,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C10" s="24"/>
       <c r="E10" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,37 +4385,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,35 +4423,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,35 +4459,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,37 +4495,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4533,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,10 +4544,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,34 +4555,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,23 +4590,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C18" s="24"/>
       <c r="F18" s="25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,31 +4614,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,23 +4646,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C20" s="24"/>
       <c r="F20" s="25" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,31 +4670,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,16 +4702,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C22" s="24"/>
       <c r="F22" s="25"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,21 +4719,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="24"/>
       <c r="F23" s="25"/>
       <c r="H23" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,26 +4741,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C24" s="24"/>
       <c r="E24" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,31 +4768,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,27 +4800,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,31 +4828,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,26 +4860,26 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="24"/>
       <c r="E28" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,31 +4887,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,31 +4919,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,31 +4951,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,31 +4983,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,31 +5015,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,31 +5047,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,31 +5079,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,31 +5111,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,26 +5143,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C37" s="24"/>
       <c r="E37" s="24" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,28 +5170,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C38" s="24"/>
       <c r="E38" s="24" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,19 +5199,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,16 +5222,16 @@
         <v>11</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5250,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
@@ -5262,10 +5278,10 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -5273,42 +5289,42 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,103 +5340,103 @@
         <v>31</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
